--- a/APRIL PAY EXCEL.xlsx
+++ b/APRIL PAY EXCEL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="09APRIL" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="StubStruc">stubs_template!$B$37:$N$48</definedName>
     <definedName name="ThePage">stubs_template!$B$1:$N$48</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -40,7 +40,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0" shapeId="0">
+    <comment ref="K8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="E13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
   <si>
     <t>Tax Status</t>
   </si>
@@ -777,7 +777,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1442,26 +1442,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1473,12 +1473,6 @@
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="83">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1514,25 +1508,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1572,36 +1547,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00;\-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1641,30 +1586,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00;\-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1704,36 +1625,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00;\-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1773,30 +1664,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1835,29 +1702,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1896,25 +1740,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1953,26 +1778,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2011,25 +1816,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2068,25 +1854,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2125,29 +1892,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2186,29 +1930,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2244,6 +1965,279 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00;\-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00;\-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00;\-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3657,6 +3651,12 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -4232,7 +4232,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="76">
   <autoFilter ref="A1:B1048576"/>
   <tableColumns count="2">
     <tableColumn id="1" name="LIST OF EMPLOYEES"/>
@@ -4243,24 +4243,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Employees9" displayName="Employees9" ref="B3:L12" totalsRowCount="1" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Employees9" displayName="Employees9" ref="B3:L12" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
   <autoFilter ref="B3:L11"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ID" totalsRowLabel="Totals" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="2" name="Employee Name" totalsRowFunction="count" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="25" name="HOURS CALCULATED" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="6" name="HOURS PAID" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="3" name="AMOUNT TO BE PAID" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="26" name="OWING HOURS" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="30" name="Gross_x000a_HOURS" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="1" name="ID" totalsRowLabel="Totals" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="2" name="Employee Name" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="25" name="HOURS CALCULATED" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="6" name="HOURS PAID" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="3" name="AMOUNT TO BE PAID" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="26" name="OWING HOURS" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="30" name="Gross_x000a_HOURS" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>Employees9[[#This Row],[HOURS CALCULATED]]+Employees9[[#This Row],[OWING HOURS]]-Employees9[[#This Row],[HOURS PAID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name=" Ded's AMOUNT" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="31" name=" Ded's AMOUNT" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <totalsRowFormula>SUBTOTAL(109,Employees9[] Employees9[ Ded''s AMOUNT] )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="COMMENTS" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="33" name="PAID STATUS" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="24" name=" " dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="4" name="COMMENTS" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="33" name="PAID STATUS" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="24" name=" " dataDxfId="52" totalsRowDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4272,23 +4272,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Employees8" displayName="Employees8" ref="B3:K7" totalsRowCount="1" headerRowDxfId="51" dataDxfId="50" totalsRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Employees8" displayName="Employees8" ref="B3:K7" totalsRowCount="1" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48">
   <autoFilter ref="B3:K6"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="ID" totalsRowLabel="Totals" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="2" name="Employee Name" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="25" name="HOURS CALCULATED" totalsRowFunction="count" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="3" name="HOURS PAID" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="26" name="OWING HOURS" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="30" name="Gross_x000a_HOURS" totalsRowFunction="sum" totalsRowDxfId="38">
+    <tableColumn id="1" name="ID" totalsRowLabel="Totals" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="2" name="Employee Name" totalsRowFunction="count" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="25" name="HOURS CALCULATED" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="3" name="HOURS PAID" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="26" name="OWING HOURS" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="30" name="Gross_x000a_HOURS" totalsRowFunction="sum" totalsRowDxfId="37">
       <calculatedColumnFormula>Employees8[[#This Row],[HOURS CALCULATED]]+Employees8[[#This Row],[OWING HOURS]]-Employees8[[#This Row],[HOURS PAID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="PREVIOUS Ded's" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="31" name="PREVIOUS Ded's" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>1058+612.58+112.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="COMMENTS" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="33" name="PAID STATUS" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="24" name=" " dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="COMMENTS" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="33" name="PAID STATUS" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="24" name=" " dataDxfId="30" totalsRowDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4300,26 +4300,26 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Employees" displayName="Employees" ref="B3:N21" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Employees" displayName="Employees" ref="B3:N21" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <autoFilter ref="B3:N20"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="ID" totalsRowLabel="Totals" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="2" name="Employee Name" totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="25" name="HOURS CALCULATED" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="6" name="HOURS PAID" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="3" name="PAY RATE" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="5" name="AMOUNT TO BE PAID" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="1" name="ID" totalsRowLabel="Totals" dataDxfId="25" totalsRowDxfId="12"/>
+    <tableColumn id="2" name="Employee Name" totalsRowFunction="count" dataDxfId="24" totalsRowDxfId="11"/>
+    <tableColumn id="25" name="HOURS CALCULATED" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="HOURS PAID" dataDxfId="22" totalsRowDxfId="9"/>
+    <tableColumn id="3" name="PAY RATE" dataDxfId="21" totalsRowDxfId="8"/>
+    <tableColumn id="5" name="AMOUNT TO BE PAID" dataDxfId="20" totalsRowDxfId="7">
       <calculatedColumnFormula>Employees[[#This Row],[HOURS PAID]]*Employees[[#This Row],[PAY RATE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="AMOUNT TO BE RETURNED" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="26" name="OWING HOURS" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="30" name="Gross_x000a_HOURS" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="7" name="AMOUNT TO BE RETURNED" dataDxfId="19" totalsRowDxfId="6"/>
+    <tableColumn id="26" name="OWING HOURS" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="5"/>
+    <tableColumn id="30" name="Gross_x000a_HOURS" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4">
       <calculatedColumnFormula>Employees[[#This Row],[HOURS CALCULATED]]+Employees[[#This Row],[OWING HOURS]]-Employees[[#This Row],[HOURS PAID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="Ded's AMOUNT" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="COMMENTS" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="33" name="Net Pay" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="24" name=" " dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="31" name="Ded's AMOUNT" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="COMMENTS" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="33" name="Net Pay" dataDxfId="14" totalsRowDxfId="1"/>
+    <tableColumn id="24" name=" " dataDxfId="13" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4562,8 +4562,8 @@
   </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4853,9 +4853,9 @@
   </sheetPr>
   <dimension ref="B1:W43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4867,7 +4867,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="2.85546875" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
@@ -5271,7 +5271,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5517,9 +5517,9 @@
   </sheetPr>
   <dimension ref="B1:Y22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5694,7 +5694,7 @@
       <c r="M5" s="46"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45">
         <v>1003</v>
       </c>
@@ -5731,7 +5731,7 @@
       <c r="M6" s="46"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="45">
         <v>1004</v>
       </c>
@@ -5974,12 +5974,12 @@
         <v>2337</v>
       </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="47">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="J13" s="64">
+      <c r="I13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="64" t="e">
         <f>Employees[[#This Row],[HOURS CALCULATED]]+Employees[[#This Row],[OWING HOURS]]-Employees[[#This Row],[HOURS PAID]]</f>
-        <v>31.180000000000007</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K13" s="48">
         <v>0</v>
@@ -6250,12 +6250,12 @@
       <c r="H21" s="45"/>
       <c r="I21" s="45">
         <f>SUBTOTAL(109,Employees[OWING HOURS])</f>
-        <v>-965.59</v>
-      </c>
-      <c r="J21" s="65">
+        <v>-982.99</v>
+      </c>
+      <c r="J21" s="65" t="e">
         <f>SUBTOTAL(109,Employees[Gross
 HOURS])</f>
-        <v>-92.839999999999961</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K21" s="49">
         <f>SUBTOTAL(109,Employees[Ded''s AMOUNT])</f>
@@ -6345,29 +6345,29 @@
       <c r="C3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="80" t="e">
+      <c r="D3" s="78" t="e">
         <f>PeriodEnding</f>
         <v>#REF!</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="12"/>
       <c r="G3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="81" t="str">
+      <c r="H3" s="76" t="str">
         <f>IFERROR(INDEX(Employees[Employee Name],Stub),"")</f>
         <v>DALJINDER SINGH</v>
       </c>
-      <c r="I3" s="81"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="13"/>
       <c r="K3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="82">
+      <c r="L3" s="77">
         <f>IFERROR(INDEX(Employees[ID],Stub),"")</f>
         <v>1001</v>
       </c>
-      <c r="M3" s="82"/>
+      <c r="M3" s="77"/>
       <c r="N3" s="21"/>
       <c r="O3" s="39"/>
       <c r="P3" s="2"/>
@@ -6539,10 +6539,10 @@
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="79"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="27">
         <f>IFERROR(INDEX(Employees[Ded''s AMOUNT],Stub),"")</f>
         <v>170</v>
@@ -6571,10 +6571,10 @@
     </row>
     <row r="10" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="77"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="29"/>
       <c r="F10" s="15"/>
       <c r="G10" s="28"/>
@@ -6655,29 +6655,29 @@
       <c r="C15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="80" t="e">
+      <c r="D15" s="78" t="e">
         <f>PeriodEnding</f>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="80"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="12"/>
       <c r="G15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="81" t="str">
+      <c r="H15" s="76" t="str">
         <f>IFERROR(INDEX(Employees[Employee Name],Stub),"")</f>
         <v>KARAMJEETH SINGH</v>
       </c>
-      <c r="I15" s="81"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="13"/>
       <c r="K15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="82">
+      <c r="L15" s="77">
         <f>IFERROR(INDEX(Employees[ID],Stub),"")</f>
         <v>1002</v>
       </c>
-      <c r="M15" s="82"/>
+      <c r="M15" s="77"/>
       <c r="N15" s="21"/>
       <c r="O15" s="39"/>
       <c r="P15" s="2"/>
@@ -6849,10 +6849,10 @@
     </row>
     <row r="21" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="79"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="27">
         <f>IFERROR(INDEX(Employees[Ded''s AMOUNT],Stub),"")</f>
         <v>0</v>
@@ -6881,10 +6881,10 @@
     </row>
     <row r="22" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="77"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="29"/>
       <c r="F22" s="15"/>
       <c r="G22" s="28"/>
@@ -6965,29 +6965,29 @@
       <c r="C27" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="80" t="e">
+      <c r="D27" s="78" t="e">
         <f>PeriodEnding</f>
         <v>#REF!</v>
       </c>
-      <c r="E27" s="80"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="12"/>
       <c r="G27" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="81" t="str">
+      <c r="H27" s="76" t="str">
         <f>IFERROR(INDEX(Employees[Employee Name],Stub),"")</f>
         <v>NITHIN</v>
       </c>
-      <c r="I27" s="81"/>
+      <c r="I27" s="76"/>
       <c r="J27" s="13"/>
       <c r="K27" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="82">
+      <c r="L27" s="77">
         <f>IFERROR(INDEX(Employees[ID],Stub),"")</f>
         <v>1003</v>
       </c>
-      <c r="M27" s="82"/>
+      <c r="M27" s="77"/>
       <c r="N27" s="21"/>
       <c r="O27" s="39"/>
       <c r="P27" s="2"/>
@@ -7159,10 +7159,10 @@
     </row>
     <row r="33" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="20"/>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="79"/>
+      <c r="D33" s="80"/>
       <c r="E33" s="27">
         <f>IFERROR(INDEX(Employees[Ded''s AMOUNT],Stub),"")</f>
         <v>2500</v>
@@ -7191,10 +7191,10 @@
     </row>
     <row r="34" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="20"/>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="77"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="29"/>
       <c r="F34" s="15"/>
       <c r="G34" s="28"/>
@@ -7275,29 +7275,29 @@
       <c r="C39" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="80" t="e">
+      <c r="D39" s="78" t="e">
         <f>PeriodEnding</f>
         <v>#REF!</v>
       </c>
-      <c r="E39" s="80"/>
+      <c r="E39" s="78"/>
       <c r="F39" s="12"/>
       <c r="G39" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="81" t="str">
+      <c r="H39" s="76" t="str">
         <f>IFERROR(INDEX(Employees[Employee Name],Stub),"")</f>
         <v>BABU</v>
       </c>
-      <c r="I39" s="81"/>
+      <c r="I39" s="76"/>
       <c r="J39" s="13"/>
       <c r="K39" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="82">
+      <c r="L39" s="77">
         <f>IFERROR(INDEX(Employees[ID],Stub),"")</f>
         <v>1004</v>
       </c>
-      <c r="M39" s="82"/>
+      <c r="M39" s="77"/>
       <c r="N39" s="21"/>
       <c r="O39" s="39"/>
       <c r="P39" s="2"/>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="45" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="20"/>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="79"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="27">
         <f>IFERROR(INDEX(Employees[Ded''s AMOUNT],Stub),"")</f>
         <v>2029.5</v>
@@ -7501,10 +7501,10 @@
     </row>
     <row r="46" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="20"/>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="77"/>
+      <c r="D46" s="82"/>
       <c r="E46" s="29"/>
       <c r="F46" s="15"/>
       <c r="G46" s="28"/>
@@ -7560,6 +7560,18 @@
     <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H27:I27"/>
@@ -7568,18 +7580,6 @@
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
